--- a/db.xlsx
+++ b/db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\JAVA\springpj\web05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83844F10-3186-47AE-B629-48EC0FB185C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3578F2A-1AF4-4970-8D5A-BFAEF6C8F54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="logmaster" sheetId="15" r:id="rId15"/>
     <sheet name="review" sheetId="6" r:id="rId16"/>
     <sheet name="settlement" sheetId="18" r:id="rId17"/>
+    <sheet name="chat" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="325">
   <si>
     <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1588,6 +1589,44 @@
 insert into category(orderby, code, name) values(2,'E12','잼·버터·스프레드');
 insert into category(orderby, code, name) values(3,'E13','치즈');
 insert into category(orderby, code, name) values(4,'E14','델리');  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table chat(
+seq int auto_increment primary key,
+send_seq int not null,
+req_seq int not null,
+detail varchar(200) not null,
+regdate datetime default now()
+);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1847,7 +1886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1948,6 +1987,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2531,7 +2579,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2565,7 +2613,7 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2587,7 +2635,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2655,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2"/>
@@ -2631,7 +2679,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -2653,7 +2701,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -2675,7 +2723,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
@@ -2695,7 +2743,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -2715,7 +2763,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -2735,7 +2783,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -2759,59 +2807,59 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="18" spans="2:16" ht="310.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="43"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
     </row>
     <row r="19" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2918,7 +2966,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -2937,7 +2985,7 @@
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="31" t="s">
         <v>11</v>
       </c>
@@ -2948,7 +2996,7 @@
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
@@ -2959,7 +3007,7 @@
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="31"/>
@@ -2970,7 +3018,7 @@
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="31"/>
       <c r="D10" s="10"/>
       <c r="E10" s="31"/>
@@ -2979,7 +3027,7 @@
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="31"/>
       <c r="D11" s="10"/>
       <c r="E11" s="31"/>
@@ -2988,7 +3036,7 @@
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -2996,7 +3044,7 @@
       <c r="H12" s="31"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="31"/>
       <c r="D13" s="10"/>
       <c r="E13" s="31"/>
@@ -3005,7 +3053,7 @@
       <c r="H13" s="31"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="31"/>
       <c r="D14" s="10"/>
       <c r="E14" s="31"/>
@@ -3014,7 +3062,7 @@
       <c r="H14" s="31"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="31"/>
       <c r="D15" s="10"/>
       <c r="E15" s="31"/>
@@ -3023,71 +3071,71 @@
       <c r="H15" s="31"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3287,7 +3335,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3317,7 +3365,7 @@
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -3339,7 +3387,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
@@ -3359,7 +3407,7 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8"/>
@@ -3383,7 +3431,7 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="8"/>
       <c r="D10" s="29"/>
       <c r="E10" s="8" t="s">
@@ -3405,7 +3453,7 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="8"/>
       <c r="D11" s="29"/>
       <c r="E11" s="8" t="s">
@@ -3425,7 +3473,7 @@
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="8"/>
       <c r="D12" s="29"/>
       <c r="E12" s="8"/>
@@ -3443,7 +3491,7 @@
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="8"/>
       <c r="D13" s="29"/>
       <c r="E13" s="8"/>
@@ -3461,7 +3509,7 @@
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="8"/>
       <c r="D14" s="29"/>
       <c r="E14" s="8"/>
@@ -3479,7 +3527,7 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="8"/>
       <c r="D15" s="29"/>
       <c r="E15" s="8"/>
@@ -3497,242 +3545,242 @@
       <c r="Q15" s="8"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
     </row>
     <row r="28" spans="2:17" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3854,7 +3902,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3877,7 +3925,7 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -3892,7 +3940,7 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
@@ -3907,7 +3955,7 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8"/>
@@ -3922,7 +3970,7 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -3935,7 +3983,7 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -3948,7 +3996,7 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3961,7 +4009,7 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3974,7 +4022,7 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3987,7 +4035,7 @@
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -4000,138 +4048,138 @@
       <c r="L15" s="8"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4232,7 +4280,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -4246,7 +4294,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -4256,7 +4304,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
@@ -4266,7 +4314,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8"/>
@@ -4276,7 +4324,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -4284,7 +4332,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -4292,7 +4340,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -4300,7 +4348,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="47"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4308,7 +4356,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="47"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -4316,7 +4364,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -4324,88 +4372,88 @@
       <c r="G15" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" spans="2:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4520,7 +4568,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -4546,7 +4594,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
@@ -4564,7 +4612,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="13" t="s">
         <v>7</v>
       </c>
@@ -4615,372 +4663,372 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5090,7 +5138,7 @@
       <c r="I5"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -5110,7 +5158,7 @@
       <c r="I6"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
@@ -5122,7 +5170,7 @@
       <c r="I7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
@@ -5146,64 +5194,64 @@
       <c r="I11"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
@@ -5535,8 +5583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5678,7 +5726,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="35" t="s">
@@ -5708,7 +5756,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
@@ -5726,7 +5774,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="35" t="s">
         <v>7</v>
       </c>
@@ -5744,7 +5792,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="35"/>
@@ -5760,7 +5808,7 @@
       <c r="M9" s="35"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="35"/>
       <c r="D10" s="10"/>
       <c r="E10" s="35"/>
@@ -5774,7 +5822,7 @@
       <c r="M10" s="35"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="35"/>
       <c r="D11" s="10"/>
       <c r="E11" s="35"/>
@@ -5788,7 +5836,7 @@
       <c r="M11" s="35"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="35"/>
       <c r="D12" s="36"/>
       <c r="E12" s="35"/>
@@ -5802,7 +5850,7 @@
       <c r="M12" s="35"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="35"/>
       <c r="D13" s="10"/>
       <c r="E13" s="35"/>
@@ -5816,7 +5864,7 @@
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="35"/>
       <c r="D14" s="10"/>
       <c r="E14" s="35"/>
@@ -5830,7 +5878,7 @@
       <c r="M14" s="35"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="35"/>
       <c r="D15" s="10"/>
       <c r="E15" s="35"/>
@@ -5844,138 +5892,138 @@
       <c r="M15" s="35"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
     </row>
     <row r="26" spans="2:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5993,8 +6041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6094,7 +6142,7 @@
       <c r="K5" s="35"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="35" t="s">
@@ -6118,7 +6166,7 @@
       <c r="K6" s="35"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
@@ -6132,7 +6180,7 @@
       <c r="K7" s="35"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="35" t="s">
         <v>7</v>
       </c>
@@ -6146,7 +6194,7 @@
       <c r="K8" s="35"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="35"/>
@@ -6160,7 +6208,7 @@
       <c r="K9" s="35"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="35"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6172,7 +6220,7 @@
       <c r="K10" s="35"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="35"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6184,7 +6232,7 @@
       <c r="K11" s="35"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -6196,7 +6244,7 @@
       <c r="K12" s="35"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="35"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6208,7 +6256,7 @@
       <c r="K13" s="35"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="35"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6220,7 +6268,7 @@
       <c r="K14" s="35"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="35"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -6232,140 +6280,528 @@
       <c r="K15" s="35"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
     </row>
     <row r="26" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B18:K26"/>
+    <mergeCell ref="B27:K28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957AA31C-2C04-492C-A584-1E7EDF21C8C3}">
+  <dimension ref="B2:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="48"/>
+      <c r="C7" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="49"/>
+      <c r="C8" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="48"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="48"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="48"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="48"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="48"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="49"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+    </row>
+    <row r="26" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="53"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6492,7 +6928,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6517,7 +6953,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -6532,7 +6968,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -6547,7 +6983,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2"/>
@@ -6566,7 +7002,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -6583,7 +7019,7 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -6598,138 +7034,138 @@
       <c r="L11" s="1"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6920,7 +7356,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6958,7 +7394,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -6984,7 +7420,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -7004,7 +7440,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2"/>
@@ -7026,7 +7462,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -7046,7 +7482,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -7064,386 +7500,386 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="59"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="59"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="59"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="59"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="59"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="59"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="59"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="59"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="59"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="59"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="59"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="59"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="59"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="59"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="59"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="62"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="53"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="56"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="59"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7567,7 +8003,7 @@
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -7589,7 +8025,7 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
@@ -7609,7 +8045,7 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
@@ -7627,7 +8063,7 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="7"/>
@@ -7645,7 +8081,7 @@
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -7661,7 +8097,7 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -7677,488 +8113,488 @@
       <c r="O11" s="7"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
     </row>
     <row r="17" spans="2:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
     </row>
     <row r="44" spans="2:15" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8247,7 +8683,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -8262,7 +8698,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="14" t="s">
         <v>11</v>
       </c>
@@ -8273,14 +8709,14 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="14"/>
@@ -8289,393 +8725,393 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
     </row>
     <row r="65" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
     </row>
     <row r="66" spans="2:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8762,7 +9198,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -8777,7 +9213,7 @@
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
@@ -8786,7 +9222,7 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="14" t="s">
         <v>162</v>
       </c>
@@ -8795,7 +9231,7 @@
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="14"/>
@@ -8804,92 +9240,92 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9133,209 +9569,209 @@
       <c r="R8" s="23"/>
     </row>
     <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9524,7 +9960,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -9564,7 +10000,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -9584,7 +10020,7 @@
       <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
@@ -9604,7 +10040,7 @@
       <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3"/>
@@ -9628,7 +10064,7 @@
       <c r="Q9" s="35"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
       <c r="E10" s="3" t="s">
@@ -9650,7 +10086,7 @@
       <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10"/>
       <c r="E11" s="3" t="s">
@@ -9670,7 +10106,7 @@
       <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>301</v>
@@ -9689,7 +10125,7 @@
       <c r="Q12" s="35"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="3"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
@@ -9707,7 +10143,7 @@
       <c r="Q13" s="35"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
       <c r="E14" s="3"/>
@@ -9725,7 +10161,7 @@
       <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="3"/>
       <c r="D15" s="10"/>
       <c r="E15" s="3"/>
@@ -9743,69 +10179,69 @@
       <c r="Q15" s="35"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="2:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="2:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9912,7 +10348,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -9931,7 +10367,7 @@
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="31" t="s">
         <v>11</v>
       </c>
@@ -9942,7 +10378,7 @@
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
@@ -9953,7 +10389,7 @@
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="31"/>
@@ -9964,7 +10400,7 @@
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="31"/>
       <c r="D10" s="10"/>
       <c r="E10" s="31"/>
@@ -9973,7 +10409,7 @@
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="31"/>
       <c r="D11" s="10"/>
       <c r="E11" s="31"/>
@@ -9982,7 +10418,7 @@
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -9990,7 +10426,7 @@
       <c r="H12" s="31"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="31"/>
       <c r="D13" s="10"/>
       <c r="E13" s="31"/>
@@ -9999,7 +10435,7 @@
       <c r="H13" s="31"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="31"/>
       <c r="D14" s="10"/>
       <c r="E14" s="31"/>
@@ -10008,7 +10444,7 @@
       <c r="H14" s="31"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="31"/>
       <c r="D15" s="10"/>
       <c r="E15" s="31"/>
@@ -10017,71 +10453,71 @@
       <c r="H15" s="31"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\JAVA\springpj\web05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3578F2A-1AF4-4970-8D5A-BFAEF6C8F54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA9D10-9F75-4830-A919-03D72055501E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="327">
   <si>
     <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1627,6 +1627,14 @@
 detail varchar(200) not null,
 regdate datetime default now()
 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6431,8 +6439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957AA31C-2C04-492C-A584-1E7EDF21C8C3}">
   <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6563,7 +6571,9 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>325</v>
+      </c>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
@@ -6780,7 +6790,9 @@
       <c r="K26" s="50"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="53"/>
+      <c r="B27" s="53" t="s">
+        <v>326</v>
+      </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
       <c r="E27" s="50"/>
